--- a/data/air_info/巴黎-曼谷.xlsx
+++ b/data/air_info/巴黎-曼谷.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\air_info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\PycharmProjects\BJUT_dsc\data\air_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CD9406-EC18-455E-A37C-3CE7D20ADDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F09460-EBF3-4E47-ADD8-3C88FCF7007C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>行程时间：11 小时 15 分钟</t>
-  </si>
-  <si>
     <t>出发时间</t>
   </si>
   <si>
@@ -71,6 +68,10 @@
   </si>
   <si>
     <t>机票价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11 小时 15 分钟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -402,7 +403,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -417,25 +418,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -443,19 +444,19 @@
         <v>0.56944444444444442</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
       </c>
       <c r="G2">
         <v>6937</v>

--- a/data/air_info/巴黎-曼谷.xlsx
+++ b/data/air_info/巴黎-曼谷.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\PycharmProjects\BJUT_dsc\data\air_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F09460-EBF3-4E47-ADD8-3C88FCF7007C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAD5161-F840-4CA7-BB22-BEEB599DBFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>出发时间</t>
   </si>
@@ -55,10 +55,6 @@
   </si>
   <si>
     <t>巴黎夏尔·戴高乐机场 (CDG)</t>
-  </si>
-  <si>
-    <t>05:55+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>素万那普机场 (BKK)</t>
@@ -115,10 +111,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -403,7 +402,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -436,27 +435,27 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>0.56944444444444442</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.95486111111111116</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
       </c>
       <c r="G2">
         <v>6937</v>
